--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnfsf10</t>
   </si>
   <si>
     <t>Tnfrsf10b</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.7952472885497</v>
+        <v>26.80992266666667</v>
       </c>
       <c r="H2">
-        <v>26.7952472885497</v>
+        <v>80.429768</v>
       </c>
       <c r="I2">
-        <v>0.8925279217574541</v>
+        <v>0.8864931668627436</v>
       </c>
       <c r="J2">
-        <v>0.8925279217574541</v>
+        <v>0.8864931668627437</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.3061504880607</v>
+        <v>15.36874933333333</v>
       </c>
       <c r="N2">
-        <v>15.3061504880607</v>
+        <v>46.10624799999999</v>
       </c>
       <c r="O2">
-        <v>0.7055283219838034</v>
+        <v>0.6852116076950574</v>
       </c>
       <c r="P2">
-        <v>0.7055283219838034</v>
+        <v>0.6852116076950576</v>
       </c>
       <c r="Q2">
-        <v>410.1320873633421</v>
+        <v>412.0349811100515</v>
       </c>
       <c r="R2">
-        <v>410.1320873633421</v>
+        <v>3708.314829990463</v>
       </c>
       <c r="S2">
-        <v>0.629703726961228</v>
+        <v>0.6074354080767034</v>
       </c>
       <c r="T2">
-        <v>0.629703726961228</v>
+        <v>0.6074354080767036</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.7952472885497</v>
+        <v>26.80992266666667</v>
       </c>
       <c r="H3">
-        <v>26.7952472885497</v>
+        <v>80.429768</v>
       </c>
       <c r="I3">
-        <v>0.8925279217574541</v>
+        <v>0.8864931668627436</v>
       </c>
       <c r="J3">
-        <v>0.8925279217574541</v>
+        <v>0.8864931668627437</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.18422129577243</v>
+        <v>4.202235666666667</v>
       </c>
       <c r="N3">
-        <v>4.18422129577243</v>
+        <v>12.606707</v>
       </c>
       <c r="O3">
-        <v>0.1928693064868232</v>
+        <v>0.1873555612508425</v>
       </c>
       <c r="P3">
-        <v>0.1928693064868232</v>
+        <v>0.1873555612508426</v>
       </c>
       <c r="Q3">
-        <v>112.1172443302381</v>
+        <v>112.6616132504418</v>
       </c>
       <c r="R3">
-        <v>112.1172443302381</v>
+        <v>1013.954519253976</v>
       </c>
       <c r="S3">
-        <v>0.1721412412894858</v>
+        <v>0.1660894248226061</v>
       </c>
       <c r="T3">
-        <v>0.1721412412894858</v>
+        <v>0.1660894248226062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.7952472885497</v>
+        <v>26.80992266666667</v>
       </c>
       <c r="H4">
-        <v>26.7952472885497</v>
+        <v>80.429768</v>
       </c>
       <c r="I4">
-        <v>0.8925279217574541</v>
+        <v>0.8864931668627436</v>
       </c>
       <c r="J4">
-        <v>0.8925279217574541</v>
+        <v>0.8864931668627437</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.208384042258637</v>
+        <v>0.3073846666666666</v>
       </c>
       <c r="N4">
-        <v>0.208384042258637</v>
+        <v>0.9221539999999999</v>
       </c>
       <c r="O4">
-        <v>0.009605344190077005</v>
+        <v>0.01370466373413052</v>
       </c>
       <c r="P4">
-        <v>0.009605344190077005</v>
+        <v>0.01370466373413053</v>
       </c>
       <c r="Q4">
-        <v>5.583701943307769</v>
+        <v>8.240959142252443</v>
       </c>
       <c r="R4">
-        <v>5.583701943307769</v>
+        <v>74.16863228027199</v>
       </c>
       <c r="S4">
-        <v>0.008573037887734464</v>
+        <v>0.01214909075445836</v>
       </c>
       <c r="T4">
-        <v>0.008573037887734464</v>
+        <v>0.01214909075445837</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.7952472885497</v>
+        <v>26.80992266666667</v>
       </c>
       <c r="H5">
-        <v>26.7952472885497</v>
+        <v>80.429768</v>
       </c>
       <c r="I5">
-        <v>0.8925279217574541</v>
+        <v>0.8864931668627436</v>
       </c>
       <c r="J5">
-        <v>0.8925279217574541</v>
+        <v>0.8864931668627437</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.99583815565356</v>
+        <v>0.2581143333333333</v>
       </c>
       <c r="N5">
-        <v>1.99583815565356</v>
+        <v>0.774343</v>
       </c>
       <c r="O5">
-        <v>0.09199702733929642</v>
+        <v>0.01150795900671453</v>
       </c>
       <c r="P5">
-        <v>0.09199702733929642</v>
+        <v>0.01150795900671454</v>
       </c>
       <c r="Q5">
-        <v>53.47897692866009</v>
+        <v>6.920025315824889</v>
       </c>
       <c r="R5">
-        <v>53.47897692866009</v>
+        <v>62.280227842424</v>
       </c>
       <c r="S5">
-        <v>0.08210991561900592</v>
+        <v>0.010201727023989</v>
       </c>
       <c r="T5">
-        <v>0.08210991561900592</v>
+        <v>0.010201727023989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.2583677179408</v>
+        <v>26.80992266666667</v>
       </c>
       <c r="H6">
-        <v>1.2583677179408</v>
+        <v>80.429768</v>
       </c>
       <c r="I6">
-        <v>0.04191520652919348</v>
+        <v>0.8864931668627436</v>
       </c>
       <c r="J6">
-        <v>0.04191520652919348</v>
+        <v>0.8864931668627437</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.3061504880607</v>
+        <v>2.292717666666667</v>
       </c>
       <c r="N6">
-        <v>15.3061504880607</v>
+        <v>6.878153</v>
       </c>
       <c r="O6">
-        <v>0.7055283219838034</v>
+        <v>0.1022202083132547</v>
       </c>
       <c r="P6">
-        <v>0.7055283219838034</v>
+        <v>0.1022202083132547</v>
       </c>
       <c r="Q6">
-        <v>19.2607656601194</v>
+        <v>61.46758333983378</v>
       </c>
       <c r="R6">
-        <v>19.2607656601194</v>
+        <v>553.2082500585039</v>
       </c>
       <c r="S6">
-        <v>0.02957236532814644</v>
+        <v>0.09061751618498652</v>
       </c>
       <c r="T6">
-        <v>0.02957236532814644</v>
+        <v>0.09061751618498654</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.2583677179408</v>
+        <v>1.262185</v>
       </c>
       <c r="H7">
-        <v>1.2583677179408</v>
+        <v>3.786555</v>
       </c>
       <c r="I7">
-        <v>0.04191520652919348</v>
+        <v>0.04173523332119963</v>
       </c>
       <c r="J7">
-        <v>0.04191520652919348</v>
+        <v>0.04173523332119964</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.18422129577243</v>
+        <v>15.36874933333333</v>
       </c>
       <c r="N7">
-        <v>4.18422129577243</v>
+        <v>46.10624799999999</v>
       </c>
       <c r="O7">
-        <v>0.1928693064868232</v>
+        <v>0.6852116076950574</v>
       </c>
       <c r="P7">
-        <v>0.1928693064868232</v>
+        <v>0.6852116076950576</v>
       </c>
       <c r="Q7">
-        <v>5.265289003320449</v>
+        <v>19.39820487729333</v>
       </c>
       <c r="R7">
-        <v>5.265289003320449</v>
+        <v>174.58384389564</v>
       </c>
       <c r="S7">
-        <v>0.008084156814537512</v>
+        <v>0.02859746632154753</v>
       </c>
       <c r="T7">
-        <v>0.008084156814537512</v>
+        <v>0.02859746632154754</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.2583677179408</v>
+        <v>1.262185</v>
       </c>
       <c r="H8">
-        <v>1.2583677179408</v>
+        <v>3.786555</v>
       </c>
       <c r="I8">
-        <v>0.04191520652919348</v>
+        <v>0.04173523332119963</v>
       </c>
       <c r="J8">
-        <v>0.04191520652919348</v>
+        <v>0.04173523332119964</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.208384042258637</v>
+        <v>4.202235666666667</v>
       </c>
       <c r="N8">
-        <v>0.208384042258637</v>
+        <v>12.606707</v>
       </c>
       <c r="O8">
-        <v>0.009605344190077005</v>
+        <v>0.1873555612508425</v>
       </c>
       <c r="P8">
-        <v>0.009605344190077005</v>
+        <v>0.1873555612508426</v>
       </c>
       <c r="Q8">
-        <v>0.2622237517122802</v>
+        <v>5.303998824931666</v>
       </c>
       <c r="R8">
-        <v>0.2622237517122802</v>
+        <v>47.735989424385</v>
       </c>
       <c r="S8">
-        <v>0.0004026099855110664</v>
+        <v>0.007819328062828222</v>
       </c>
       <c r="T8">
-        <v>0.0004026099855110664</v>
+        <v>0.007819328062828226</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.2583677179408</v>
+        <v>1.262185</v>
       </c>
       <c r="H9">
-        <v>1.2583677179408</v>
+        <v>3.786555</v>
       </c>
       <c r="I9">
-        <v>0.04191520652919348</v>
+        <v>0.04173523332119963</v>
       </c>
       <c r="J9">
-        <v>0.04191520652919348</v>
+        <v>0.04173523332119964</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.99583815565356</v>
+        <v>0.3073846666666666</v>
       </c>
       <c r="N9">
-        <v>1.99583815565356</v>
+        <v>0.9221539999999999</v>
       </c>
       <c r="O9">
-        <v>0.09199702733929642</v>
+        <v>0.01370466373413052</v>
       </c>
       <c r="P9">
-        <v>0.09199702733929642</v>
+        <v>0.01370466373413053</v>
       </c>
       <c r="Q9">
-        <v>2.511498305308945</v>
+        <v>0.3879763154966666</v>
       </c>
       <c r="R9">
-        <v>2.511498305308945</v>
+        <v>3.49178683947</v>
       </c>
       <c r="S9">
-        <v>0.003856074400998469</v>
+        <v>0.0005719673385325204</v>
       </c>
       <c r="T9">
-        <v>0.003856074400998469</v>
+        <v>0.0005719673385325206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.688935925096978</v>
+        <v>1.262185</v>
       </c>
       <c r="H10">
-        <v>0.688935925096978</v>
+        <v>3.786555</v>
       </c>
       <c r="I10">
-        <v>0.0229478960514619</v>
+        <v>0.04173523332119963</v>
       </c>
       <c r="J10">
-        <v>0.0229478960514619</v>
+        <v>0.04173523332119964</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>15.3061504880607</v>
+        <v>0.2581143333333333</v>
       </c>
       <c r="N10">
-        <v>15.3061504880607</v>
+        <v>0.774343</v>
       </c>
       <c r="O10">
-        <v>0.7055283219838034</v>
+        <v>0.01150795900671453</v>
       </c>
       <c r="P10">
-        <v>0.7055283219838034</v>
+        <v>0.01150795900671454</v>
       </c>
       <c r="Q10">
-        <v>10.54495694616566</v>
+        <v>0.3257880398183333</v>
       </c>
       <c r="R10">
-        <v>10.54495694616566</v>
+        <v>2.932092358365</v>
       </c>
       <c r="S10">
-        <v>0.01619039059424666</v>
+        <v>0.0004802873541960318</v>
       </c>
       <c r="T10">
-        <v>0.01619039059424666</v>
+        <v>0.000480287354196032</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.688935925096978</v>
+        <v>1.262185</v>
       </c>
       <c r="H11">
-        <v>0.688935925096978</v>
+        <v>3.786555</v>
       </c>
       <c r="I11">
-        <v>0.0229478960514619</v>
+        <v>0.04173523332119963</v>
       </c>
       <c r="J11">
-        <v>0.0229478960514619</v>
+        <v>0.04173523332119964</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.18422129577243</v>
+        <v>2.292717666666667</v>
       </c>
       <c r="N11">
-        <v>4.18422129577243</v>
+        <v>6.878153</v>
       </c>
       <c r="O11">
-        <v>0.1928693064868232</v>
+        <v>0.1022202083132547</v>
       </c>
       <c r="P11">
-        <v>0.1928693064868232</v>
+        <v>0.1022202083132547</v>
       </c>
       <c r="Q11">
-        <v>2.882660369213455</v>
+        <v>2.893833848101667</v>
       </c>
       <c r="R11">
-        <v>2.882660369213455</v>
+        <v>26.044504632915</v>
       </c>
       <c r="S11">
-        <v>0.004425944796777166</v>
+        <v>0.004266184244095315</v>
       </c>
       <c r="T11">
-        <v>0.004425944796777166</v>
+        <v>0.004266184244095317</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.688935925096978</v>
+        <v>0.7313983333333334</v>
       </c>
       <c r="H12">
-        <v>0.688935925096978</v>
+        <v>2.194195</v>
       </c>
       <c r="I12">
-        <v>0.0229478960514619</v>
+        <v>0.02418431536771806</v>
       </c>
       <c r="J12">
-        <v>0.0229478960514619</v>
+        <v>0.02418431536771806</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.208384042258637</v>
+        <v>15.36874933333333</v>
       </c>
       <c r="N12">
-        <v>0.208384042258637</v>
+        <v>46.10624799999999</v>
       </c>
       <c r="O12">
-        <v>0.009605344190077005</v>
+        <v>0.6852116076950574</v>
       </c>
       <c r="P12">
-        <v>0.009605344190077005</v>
+        <v>0.6852116076950576</v>
       </c>
       <c r="Q12">
-        <v>0.1435632529289018</v>
+        <v>11.24067764781778</v>
       </c>
       <c r="R12">
-        <v>0.1435632529289018</v>
+        <v>101.16609883036</v>
       </c>
       <c r="S12">
-        <v>0.0002204224400124006</v>
+        <v>0.01657137361411837</v>
       </c>
       <c r="T12">
-        <v>0.0002204224400124006</v>
+        <v>0.01657137361411838</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.688935925096978</v>
+        <v>0.7313983333333334</v>
       </c>
       <c r="H13">
-        <v>0.688935925096978</v>
+        <v>2.194195</v>
       </c>
       <c r="I13">
-        <v>0.0229478960514619</v>
+        <v>0.02418431536771806</v>
       </c>
       <c r="J13">
-        <v>0.0229478960514619</v>
+        <v>0.02418431536771806</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.99583815565356</v>
+        <v>4.202235666666667</v>
       </c>
       <c r="N13">
-        <v>1.99583815565356</v>
+        <v>12.606707</v>
       </c>
       <c r="O13">
-        <v>0.09199702733929642</v>
+        <v>0.1873555612508425</v>
       </c>
       <c r="P13">
-        <v>0.09199702733929642</v>
+        <v>0.1873555612508426</v>
       </c>
       <c r="Q13">
-        <v>1.375004606109032</v>
+        <v>3.073508162873889</v>
       </c>
       <c r="R13">
-        <v>1.375004606109032</v>
+        <v>27.661573465865</v>
       </c>
       <c r="S13">
-        <v>0.002111138220425673</v>
+        <v>0.004531065979186192</v>
       </c>
       <c r="T13">
-        <v>0.002111138220425673</v>
+        <v>0.004531065979186194</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.27919587918776</v>
+        <v>0.7313983333333334</v>
       </c>
       <c r="H14">
-        <v>1.27919587918776</v>
+        <v>2.194195</v>
       </c>
       <c r="I14">
-        <v>0.04260897566189047</v>
+        <v>0.02418431536771806</v>
       </c>
       <c r="J14">
-        <v>0.04260897566189047</v>
+        <v>0.02418431536771806</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.3061504880607</v>
+        <v>0.3073846666666666</v>
       </c>
       <c r="N14">
-        <v>15.3061504880607</v>
+        <v>0.9221539999999999</v>
       </c>
       <c r="O14">
-        <v>0.7055283219838034</v>
+        <v>0.01370466373413052</v>
       </c>
       <c r="P14">
-        <v>0.7055283219838034</v>
+        <v>0.01370466373413053</v>
       </c>
       <c r="Q14">
-        <v>19.57956463055497</v>
+        <v>0.2248206328922222</v>
       </c>
       <c r="R14">
-        <v>19.57956463055497</v>
+        <v>2.02338569603</v>
       </c>
       <c r="S14">
-        <v>0.03006183910018231</v>
+        <v>0.0003314379097547411</v>
       </c>
       <c r="T14">
-        <v>0.03006183910018231</v>
+        <v>0.0003314379097547413</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.27919587918776</v>
+        <v>0.7313983333333334</v>
       </c>
       <c r="H15">
-        <v>1.27919587918776</v>
+        <v>2.194195</v>
       </c>
       <c r="I15">
-        <v>0.04260897566189047</v>
+        <v>0.02418431536771806</v>
       </c>
       <c r="J15">
-        <v>0.04260897566189047</v>
+        <v>0.02418431536771806</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>4.18422129577243</v>
+        <v>0.2581143333333333</v>
       </c>
       <c r="N15">
-        <v>4.18422129577243</v>
+        <v>0.774343</v>
       </c>
       <c r="O15">
-        <v>0.1928693064868232</v>
+        <v>0.01150795900671453</v>
       </c>
       <c r="P15">
-        <v>0.1928693064868232</v>
+        <v>0.01150795900671454</v>
       </c>
       <c r="Q15">
-        <v>5.352438639161761</v>
+        <v>0.1887843932094445</v>
       </c>
       <c r="R15">
-        <v>5.352438639161761</v>
+        <v>1.699059538885</v>
       </c>
       <c r="S15">
-        <v>0.008217963586022746</v>
+        <v>0.0002783121098571557</v>
       </c>
       <c r="T15">
-        <v>0.008217963586022746</v>
+        <v>0.0002783121098571558</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.27919587918776</v>
+        <v>0.7313983333333334</v>
       </c>
       <c r="H16">
-        <v>1.27919587918776</v>
+        <v>2.194195</v>
       </c>
       <c r="I16">
-        <v>0.04260897566189047</v>
+        <v>0.02418431536771806</v>
       </c>
       <c r="J16">
-        <v>0.04260897566189047</v>
+        <v>0.02418431536771806</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.208384042258637</v>
+        <v>2.292717666666667</v>
       </c>
       <c r="N16">
-        <v>0.208384042258637</v>
+        <v>6.878153</v>
       </c>
       <c r="O16">
-        <v>0.009605344190077005</v>
+        <v>0.1022202083132547</v>
       </c>
       <c r="P16">
-        <v>0.009605344190077005</v>
+        <v>0.1022202083132547</v>
       </c>
       <c r="Q16">
-        <v>0.2665640081457365</v>
+        <v>1.676889880203889</v>
       </c>
       <c r="R16">
-        <v>0.2665640081457365</v>
+        <v>15.092008921835</v>
       </c>
       <c r="S16">
-        <v>0.0004092738768190721</v>
+        <v>0.002472125754801587</v>
       </c>
       <c r="T16">
-        <v>0.0004092738768190721</v>
+        <v>0.002472125754801587</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.357302666666667</v>
+      </c>
+      <c r="H17">
+        <v>4.071908000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.04488038083230255</v>
+      </c>
+      <c r="J17">
+        <v>0.04488038083230256</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.36874933333333</v>
+      </c>
+      <c r="N17">
+        <v>46.10624799999999</v>
+      </c>
+      <c r="O17">
+        <v>0.6852116076950574</v>
+      </c>
+      <c r="P17">
+        <v>0.6852116076950576</v>
+      </c>
+      <c r="Q17">
+        <v>20.86004445346489</v>
+      </c>
+      <c r="R17">
+        <v>187.740400081184</v>
+      </c>
+      <c r="S17">
+        <v>0.03075255790406847</v>
+      </c>
+      <c r="T17">
+        <v>0.03075255790406848</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.357302666666667</v>
+      </c>
+      <c r="H18">
+        <v>4.071908000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.04488038083230255</v>
+      </c>
+      <c r="J18">
+        <v>0.04488038083230256</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.202235666666667</v>
+      </c>
+      <c r="N18">
+        <v>12.606707</v>
+      </c>
+      <c r="O18">
+        <v>0.1873555612508425</v>
+      </c>
+      <c r="P18">
+        <v>0.1873555612508426</v>
+      </c>
+      <c r="Q18">
+        <v>5.703705676328445</v>
+      </c>
+      <c r="R18">
+        <v>51.33335108695601</v>
+      </c>
+      <c r="S18">
+        <v>0.0084085889399876</v>
+      </c>
+      <c r="T18">
+        <v>0.008408588939987603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.357302666666667</v>
+      </c>
+      <c r="H19">
+        <v>4.071908000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.04488038083230255</v>
+      </c>
+      <c r="J19">
+        <v>0.04488038083230256</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3073846666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.9221539999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.01370466373413052</v>
+      </c>
+      <c r="P19">
+        <v>0.01370466373413053</v>
+      </c>
+      <c r="Q19">
+        <v>0.4172140277591111</v>
+      </c>
+      <c r="R19">
+        <v>3.754926249832</v>
+      </c>
+      <c r="S19">
+        <v>0.0006150705275664235</v>
+      </c>
+      <c r="T19">
+        <v>0.0006150705275664237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.357302666666667</v>
+      </c>
+      <c r="H20">
+        <v>4.071908000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.04488038083230255</v>
+      </c>
+      <c r="J20">
+        <v>0.04488038083230256</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.2581143333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.774343</v>
+      </c>
+      <c r="O20">
+        <v>0.01150795900671453</v>
+      </c>
+      <c r="P20">
+        <v>0.01150795900671454</v>
+      </c>
+      <c r="Q20">
+        <v>0.3503392729382223</v>
+      </c>
+      <c r="R20">
+        <v>3.153053456444</v>
+      </c>
+      <c r="S20">
+        <v>0.0005164815828238744</v>
+      </c>
+      <c r="T20">
+        <v>0.0005164815828238746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.27919587918776</v>
-      </c>
-      <c r="H17">
-        <v>1.27919587918776</v>
-      </c>
-      <c r="I17">
-        <v>0.04260897566189047</v>
-      </c>
-      <c r="J17">
-        <v>0.04260897566189047</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.99583815565356</v>
-      </c>
-      <c r="N17">
-        <v>1.99583815565356</v>
-      </c>
-      <c r="O17">
-        <v>0.09199702733929642</v>
-      </c>
-      <c r="P17">
-        <v>0.09199702733929642</v>
-      </c>
-      <c r="Q17">
-        <v>2.553067944237733</v>
-      </c>
-      <c r="R17">
-        <v>2.553067944237733</v>
-      </c>
-      <c r="S17">
-        <v>0.003919899098866354</v>
-      </c>
-      <c r="T17">
-        <v>0.003919899098866354</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.357302666666667</v>
+      </c>
+      <c r="H21">
+        <v>4.071908000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.04488038083230255</v>
+      </c>
+      <c r="J21">
+        <v>0.04488038083230256</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.292717666666667</v>
+      </c>
+      <c r="N21">
+        <v>6.878153</v>
+      </c>
+      <c r="O21">
+        <v>0.1022202083132547</v>
+      </c>
+      <c r="P21">
+        <v>0.1022202083132547</v>
+      </c>
+      <c r="Q21">
+        <v>3.111911802880445</v>
+      </c>
+      <c r="R21">
+        <v>28.007206225924</v>
+      </c>
+      <c r="S21">
+        <v>0.00458768187785617</v>
+      </c>
+      <c r="T21">
+        <v>0.004587681877856172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.08186399999999999</v>
+      </c>
+      <c r="H22">
+        <v>0.245592</v>
+      </c>
+      <c r="I22">
+        <v>0.002706903616036228</v>
+      </c>
+      <c r="J22">
+        <v>0.002706903616036229</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>15.36874933333333</v>
+      </c>
+      <c r="N22">
+        <v>46.10624799999999</v>
+      </c>
+      <c r="O22">
+        <v>0.6852116076950574</v>
+      </c>
+      <c r="P22">
+        <v>0.6852116076950576</v>
+      </c>
+      <c r="Q22">
+        <v>1.258147295424</v>
+      </c>
+      <c r="R22">
+        <v>11.323325658816</v>
+      </c>
+      <c r="S22">
+        <v>0.001854801778619748</v>
+      </c>
+      <c r="T22">
+        <v>0.001854801778619749</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.08186399999999999</v>
+      </c>
+      <c r="H23">
+        <v>0.245592</v>
+      </c>
+      <c r="I23">
+        <v>0.002706903616036228</v>
+      </c>
+      <c r="J23">
+        <v>0.002706903616036229</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.202235666666667</v>
+      </c>
+      <c r="N23">
+        <v>12.606707</v>
+      </c>
+      <c r="O23">
+        <v>0.1873555612508425</v>
+      </c>
+      <c r="P23">
+        <v>0.1873555612508426</v>
+      </c>
+      <c r="Q23">
+        <v>0.344011820616</v>
+      </c>
+      <c r="R23">
+        <v>3.096106385544</v>
+      </c>
+      <c r="S23">
+        <v>0.0005071534462344026</v>
+      </c>
+      <c r="T23">
+        <v>0.0005071534462344029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.08186399999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.245592</v>
+      </c>
+      <c r="I24">
+        <v>0.002706903616036228</v>
+      </c>
+      <c r="J24">
+        <v>0.002706903616036229</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.3073846666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.9221539999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.01370466373413052</v>
+      </c>
+      <c r="P24">
+        <v>0.01370466373413053</v>
+      </c>
+      <c r="Q24">
+        <v>0.025163738352</v>
+      </c>
+      <c r="R24">
+        <v>0.2264736451679999</v>
+      </c>
+      <c r="S24">
+        <v>3.709720381847847E-05</v>
+      </c>
+      <c r="T24">
+        <v>3.709720381847849E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.08186399999999999</v>
+      </c>
+      <c r="H25">
+        <v>0.245592</v>
+      </c>
+      <c r="I25">
+        <v>0.002706903616036228</v>
+      </c>
+      <c r="J25">
+        <v>0.002706903616036229</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.2581143333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.774343</v>
+      </c>
+      <c r="O25">
+        <v>0.01150795900671453</v>
+      </c>
+      <c r="P25">
+        <v>0.01150795900671454</v>
+      </c>
+      <c r="Q25">
+        <v>0.021130271784</v>
+      </c>
+      <c r="R25">
+        <v>0.190172446056</v>
+      </c>
+      <c r="S25">
+        <v>3.115093584847225E-05</v>
+      </c>
+      <c r="T25">
+        <v>3.115093584847226E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.08186399999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.245592</v>
+      </c>
+      <c r="I26">
+        <v>0.002706903616036228</v>
+      </c>
+      <c r="J26">
+        <v>0.002706903616036229</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.292717666666667</v>
+      </c>
+      <c r="N26">
+        <v>6.878153</v>
+      </c>
+      <c r="O26">
+        <v>0.1022202083132547</v>
+      </c>
+      <c r="P26">
+        <v>0.1022202083132547</v>
+      </c>
+      <c r="Q26">
+        <v>0.187691039064</v>
+      </c>
+      <c r="R26">
+        <v>1.689219351576</v>
+      </c>
+      <c r="S26">
+        <v>0.0002767002515151257</v>
+      </c>
+      <c r="T26">
+        <v>0.0002767002515151258</v>
       </c>
     </row>
   </sheetData>
